--- a/biology/Médecine/Méat_acoustique_interne/Méat_acoustique_interne.xlsx
+++ b/biology/Médecine/Méat_acoustique_interne/Méat_acoustique_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9at_acoustique_interne</t>
+          <t>Méat_acoustique_interne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méat acoustique interne (ou conduit auditif interne) est un canal osseux situé dans la partie pétreuse de l'os temporal entre la fosse crânienne postérieure et l'oreille interne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9at_acoustique_interne</t>
+          <t>Méat_acoustique_interne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orifice d’entrée du conduit auditif interne ou pore acoustique interne, est situé à l'intérieur de la fosse crânienne postérieure du crâne, près du centre de la face postérieure de la partie pétreuse de l'os temporal. Ses bords extérieurs sont lisses et arrondis.
 Le conduit est latéral à l'os et se termine en cul de sac avec une longueur de 10 mm et une largeur de 5 mm.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9at_acoustique_interne</t>
+          <t>Méat_acoustique_interne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méat auditif interne permet l'accès à l'oreille interne aux branches du nerf vestibulocochléaire (nerf crânien VIII) et à l'artère du labyrinthe (une branche auditive interne de l'artère cérébelleuse inféro-antérieure qui existe chez 85 % des personnes)
 Il permet également au nerf facial (nerf crânien VII) d'atteindre les structures du visage.
